--- a/top_reddit_posts.xlsx
+++ b/top_reddit_posts.xlsx
@@ -15,6 +15,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2023-12-20" sheetId="7" state="visible" r:id="rId7"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2023-12-21" sheetId="8" state="visible" r:id="rId8"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2023-12-22" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2023-12-26" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -2270,6 +2271,1946 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="9" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
+      <c r="C1" s="9" t="inlineStr">
+        <is>
+          <t>Subreddit</t>
+        </is>
+      </c>
+      <c r="D1" s="9" t="inlineStr">
+        <is>
+          <t>Body</t>
+        </is>
+      </c>
+      <c r="E1" s="9" t="inlineStr">
+        <is>
+          <t>Score</t>
+        </is>
+      </c>
+      <c r="F1" s="9" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
+      <c r="G1" s="9" t="inlineStr">
+        <is>
+          <t>Comments</t>
+        </is>
+      </c>
+      <c r="H1" s="9" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="I1" s="9" t="inlineStr">
+        <is>
+          <t>Date Gathered</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dancing like no one is watching </t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>nextfuckinglevel</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>This kid knows da moves</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>62461</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>https://v.redd.it/lcf3n4neyh8c1</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>2141</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2023-12-25 12:00:04</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>2023-12-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>My parents just handed me this for Xmas…</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>pics</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>53905</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>https://i.redd.it/gs3b2gt7bh8c1.jpeg</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>2265</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2023-12-25 09:50:05</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>2023-12-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>My grandma (103) meets her great great great grandson for the first time.</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>BeAmazed</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Sixth generation meets the first generation matriarch. I know it's not unheard of, but it is pretty amazing! She still lives in her own home. She uses a walker but other than that does most things by herself. I posted a photo of her 3 years ago when she turned 100, but this calls for an update.</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>49808</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>https://i.redd.it/q54xn7abqh8c1.png</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>809</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2023-12-25 11:14:43</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>2023-12-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Meirl</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>meirl</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>45116</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>https://i.redd.it/6t5grvkp5k8c1.jpeg</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>242</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2023-12-25 19:24:34</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>2023-12-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Man wrongfully convicted of murder gets rewarded only 175k after serving 50 years</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Damnthatsinteresting</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">this makes me so angry </t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>42030</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>https://v.redd.it/mwmtoy6hxi8c1</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>2862</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2023-12-25 15:17:00</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>2023-12-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>They win every time</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>facepalm</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>41032</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>https://i.redd.it/il1zqfspli8c1.jpeg</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>1539</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2023-12-25 14:10:43</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>2023-12-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Another Christmas as the last unmarried in my family</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>funny</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>40638</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>https://i.redd.it/5uowfak5lk8c1.jpeg</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>1931</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2023-12-25 20:52:54</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>2023-12-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Happy Holidays</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>MadeMeSmile</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Not sure if this has been posted already, but this is awesome.</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>32096</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>https://i.redd.it/p32snavfei8c1.jpeg</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>292</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2023-12-25 13:29:56</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>2023-12-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Data recovery from a dead USB flash drive</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>interestingasfuck</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="n">
+        <v>29219</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>https://v.redd.it/vencw80t2j8c1</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>525</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2023-12-25 15:48:14</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>2023-12-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="9" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Try pick her outfit</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Unexpected</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>28356</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>https://v.redd.it/nb50vhnazi8c1</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>592</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2023-12-25 15:27:07</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>2023-12-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Kinda loosing my mind, I did nothing, where did the single point come from?</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Steam</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Whoever did this Christmas miracle, thank you.</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>25824</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>https://i.redd.it/uzg2zcidci8c1.jpeg</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>532</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2023-12-25 13:18:22</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>2023-12-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="9" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Xmas meal at my drug recovery center</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>pics</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="n">
+        <v>25902</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>https://i.redd.it/figt9aeybk8c1.jpeg</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>1150</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2023-12-25 19:59:35</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>2023-12-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="9" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>My first tattoo! Done by Picsola in Ottawa, Ontario, Canada</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>tattoos</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>25471</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/gallery/18qof9i</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>958</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>2023-12-25 10:46:46</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>2023-12-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="9" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>I love gifts too..</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Unexpected</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="n">
+        <v>23704</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>https://v.redd.it/e27qk4lxqh8c1</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>557</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2023-12-25 11:18:18</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>2023-12-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="9" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>my 16 year old sister spent two hours cooking christmas dinner and my mom wont eat because shes mad that she didn't like her present</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>mildlyinfuriating</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v>22839</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/gallery/18qwflq</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>1666</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>2023-12-25 17:35:35</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>2023-12-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="9" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Christmas dinner after testing positive for covid yesterday</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>pics</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="n">
+        <v>21861</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>https://i.redd.it/2ydwi4qdcj8c1.jpeg</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>1310</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>2023-12-25 16:40:20</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>2023-12-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="9" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>1, 2, 3</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>funny</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="n">
+        <v>21772</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>https://v.redd.it/wlldnluv2i8c1</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>318</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>2023-12-25 12:25:21</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>2023-12-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="9" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>I'm also pretty sure.</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Funnymemes</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="n">
+        <v>22919</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>https://i.redd.it/s41xg1xsil8c1.jpeg</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>839</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>2023-12-25 23:59:53</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>2023-12-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Very Interesting Sperm Extractor</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>interestingasfuck</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="n">
+        <v>21739</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>https://v.redd.it/228ajcqh0k8c1</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>3500</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>2023-12-25 18:55:38</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>2023-12-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="9" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Im an animal shelter vet tech and got to spend christmas with my friend Harley</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>aww</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="n">
+        <v>20599</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/gallery/18quwe9</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>246</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>2023-12-25 16:17:59</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>2023-12-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>To buy a Christmas gift</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>funny</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>22842</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>https://v.redd.it/fkt61sy4zm8c1</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>266</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>2023-12-26 04:53:06</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>2023-12-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="9" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>The mother worked hard and was patient</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>BeAmazed</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="n">
+        <v>19493</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>https://v.redd.it/euireusf7l8c1</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>297</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>2023-12-25 22:56:35</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>2023-12-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="9" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>A cool guide to European Prime Ministers</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>coolguides</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="n">
+        <v>19143</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>https://i.redd.it/yusw2v0t6l8c1.jpeg</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>735</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>2023-12-25 22:52:29</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>2023-12-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="9" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>First nights as a vampire warlord</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>tumblr</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="n">
+        <v>19320</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>https://i.redd.it/a7chm4s3vk8c1.jpeg</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>165</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>2023-12-25 21:47:01</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>2023-12-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="9" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Merry Christmas, y'all!</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>WhitePeopleTwitter</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="n">
+        <v>18392</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>https://i.redd.it/nnrbf1sthj8c1.jpeg</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>505</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>2023-12-25 17:10:41</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>2023-12-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="9" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Few of the traps used in the Vietnam War</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>interestingasfuck</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="n">
+        <v>18387</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>https://v.redd.it/ht8isz4ahi8c1</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>1086</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>2023-12-25 13:45:57</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>2023-12-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="9" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>me_irl</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>me_irl</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="n">
+        <v>18850</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>https://i.redd.it/ib0ppuy9dk8c1.jpeg</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>191</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>2023-12-25 20:06:59</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>2023-12-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="9" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>She was murdered. Yet his biggest concern is, well, clothing.</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>facepalm</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="n">
+        <v>17827</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>https://i.redd.it/wjti3n4gnh8c1.jpeg</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>3884</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>2023-12-25 10:58:38</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>2023-12-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="9" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Triumph</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>facepalm</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="n">
+        <v>17426</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>https://i.redd.it/ey8lh7jz5j8c1.png</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>669</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>2023-12-25 16:05:08</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>2023-12-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="9" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>30 of the largest food chains in United States.</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Damnthatsinteresting</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="n">
+        <v>18264</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>https://v.redd.it/xn6ywuslok8c1</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>1286</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>2023-12-25 21:11:05</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>2023-12-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="9" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Pyle’s work</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>lotrmemes</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="n">
+        <v>17073</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>https://i.redd.it/yrxion70sh8c1.jpeg</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>238</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>2023-12-25 11:24:11</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>2023-12-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="9" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Animal shelter in Pennsylvania empty for first time in 47 years</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>news</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="n">
+        <v>16969</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>https://theguardian.com/world/2023/dec/25/pennsylvania-animal-shelter-empty-dogs-cats</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>374</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>2023-12-25 10:49:22</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>2023-12-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="9" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Rich Man, Poor People.</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>facepalm</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="n">
+        <v>16967</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>https://i.redd.it/2322hs3gjj8c1.png</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>380</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>2023-12-25 17:20:27</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>2023-12-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="9" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Israel hits Bethlehem in Christmas raids on occupied West Bank</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>nottheonion</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="n">
+        <v>16833</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>https://www.aljazeera.com/news/2023/12/25/israel-intensifies-occupied-west-bank-raids-on-christmas-day</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>2794</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>2023-12-25 10:13:40</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>2023-12-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="9" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Found this gem in twitter</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>technicallythetruth</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="n">
+        <v>16568</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>https://i.redd.it/j4a4ah124i8c1.jpeg</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>308</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>2023-12-25 12:31:44</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>2023-12-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="9" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>My boyfriend and I broke up on Christmas</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>mildlyinfuriating</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>We had a lovely evening. He cooked dinner, we exchanged gifts. We went upstairs and somehow we got talking and he said he doesn't love me, he doesn't think he can love anyone, but he enjoys my company. I asked him, is this enough for him? He said yes but he doesn't think it's enough for me. He said I'm far more of a selfless person than he is and I said I think we balance each other out. He then said he doesn't care about the things I care about and doesn't see ever bringing my life into his, with my animals and my friends. I said, "I think you're going to miss me." I got up, took my stuff out of his bedside table, walked out. Realized I forgot my laptop on the sofa. Went back in, he said "what about your gifts?" I just shook my head no, grabbed my laptop, walked back out, and blocked him on everything. There's no coming back from that.</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>19016</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/mildlyinfuriating/comments/18r5ey1/my_boyfriend_and_i_broke_up_on_christmas/</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>2200</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>2023-12-26 02:36:35</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>2023-12-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="9" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Me_irl</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>me_irl</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="n">
+        <v>22573</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>https://i.redd.it/pkc2dltj9n8c1.jpeg</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>201</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>2023-12-26 05:51:26</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>2023-12-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="9" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>My stepbrother’s neighbor dug a 4-foot hole and hit a sewer line on Christmas Eve</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Wellthatsucks</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="n">
+        <v>16568</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>https://v.redd.it/uuz9ccz18j8c1</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>1745</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>2023-12-25 16:15:58</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>2023-12-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="9" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>What my coworkers got me for Christmas..</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Unexpected</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="n">
+        <v>16349</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>https://v.redd.it/gz0h99eofj8c1</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>246</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>2023-12-25 16:59:12</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>2023-12-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="9" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>A couple of new ones here.</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>BrandNewSentence</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="n">
+        <v>15575</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>https://i.redd.it/nnuhhkpv4i8c1.jpeg</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>335</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>2023-12-25 12:36:21</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>2023-12-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="9" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>You’ll never walk alone.</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>MadeMeSmile</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="n">
+        <v>15834</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>https://v.redd.it/didcdz59ni8c1</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>362</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>2023-12-25 14:19:25</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>2023-12-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="9" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Bro got a factory reset!</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>FunnyAnimals</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="n">
+        <v>15580</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>https://v.redd.it/nlt76337ri8c1</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>272</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>2023-12-25 14:41:27</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>2023-12-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="9" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>I got fired so this is my Christmas alone</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>mildlyinfuriating</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>I live in Atlanta, Georgia and I got fired on December 20th. My only chance to pay rent this month was to drive 700 miles and start a new contracting job the week of Christmas. 
+I don’t have any family or many friends anyways but I was looking forward to spending time with the few souls I do have in my life. I miss them but I am stuck eating ravioli on a concrete floor, in a warehouse, for Christmas.</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>15748</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>https://i.redd.it/6xtr9qrsoj8c1.jpeg</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>987</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>2023-12-25 17:49:46</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>2023-12-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="9" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Keep it safe</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>lotrmemes</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="n">
+        <v>15444</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>https://i.redd.it/mmgf26a6gi8c1.jpeg</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>185</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>2023-12-25 13:39:39</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>2023-12-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="9" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Merry Christmas, everyone - from GOP Congress hopeful, Derrick Evans (posted and deleted)</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>WhitePeopleTwitter</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="n">
+        <v>15046</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>https://i.redd.it/weo81yuo5j8c1.jpeg</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>885</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>2023-12-25 16:02:41</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>2023-12-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="9" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>New Images of Joaquin Phoenix &amp; Lady Gaga in 'Joker: Folie à Deux'</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>movies</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="n">
+        <v>15145</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>https://i.redd.it/facjqdwaqi8c1.jpeg</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>1010</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>2023-12-25 14:36:49</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>2023-12-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="9" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Maybe maybe maybe</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>maybemaybemaybe</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="n">
+        <v>15019</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>https://v.redd.it/ioq2gqx9fh8c1</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>328</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>2023-12-25 10:13:16</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>2023-12-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="9" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>GTA 5 Leak Suggests EIGHT DLCs Were Scrapped</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>gaming</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="n">
+        <v>15504</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>https://insider-gaming.com/gta-5-leak-dlcs/</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>1554</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>2023-12-25 22:26:07</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>2023-12-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="9" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>I work at a hospital that sells this in the gift shop</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>mildlyinfuriating</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="n">
+        <v>14995</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>https://i.redd.it/2b9lerxkhi8c1.jpeg</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>842</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>2023-12-25 13:47:33</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>2023-12-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="9" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Presentation madlad</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>madlads</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="n">
+        <v>14770</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>https://i.redd.it/ywat9tgkhh8c1.jpeg</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>102</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>2023-12-25 10:25:41</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>2023-12-26</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -15603,7 +17544,6 @@
           <t>maybemaybemaybe</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
       <c r="E2" t="n">
         <v>45526</v>
       </c>
@@ -15640,7 +17580,6 @@
           <t>Damnthatsinteresting</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
       <c r="E3" t="n">
         <v>45144</v>
       </c>
@@ -15677,7 +17616,6 @@
           <t>interestingasfuck</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
       <c r="E4" t="n">
         <v>42184</v>
       </c>
@@ -15714,7 +17652,6 @@
           <t>pics</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
         <v>38665</v>
       </c>
@@ -15751,7 +17688,6 @@
           <t>meirl</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
       <c r="E6" t="n">
         <v>37467</v>
       </c>
@@ -15788,7 +17724,6 @@
           <t>MadeMeSmile</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
       <c r="E7" t="n">
         <v>33147</v>
       </c>
@@ -15825,7 +17760,6 @@
           <t>todayilearned</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
         <v>31642</v>
       </c>
@@ -15862,7 +17796,6 @@
           <t>KidsAreFuckingStupid</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
         <v>31659</v>
       </c>
@@ -15899,7 +17832,6 @@
           <t>technicallythetruth</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
         <v>31386</v>
       </c>
@@ -15936,7 +17868,6 @@
           <t>facepalm</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
         <v>30844</v>
       </c>
@@ -15973,7 +17904,6 @@
           <t>WhitePeopleTwitter</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
       <c r="E12" t="n">
         <v>30653</v>
       </c>
@@ -16010,7 +17940,6 @@
           <t>madlads</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
       <c r="E13" t="n">
         <v>28739</v>
       </c>
@@ -16047,7 +17976,6 @@
           <t>meirl</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
       <c r="E14" t="n">
         <v>28845</v>
       </c>
@@ -16084,7 +18012,6 @@
           <t>tumblr</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
       <c r="E15" t="n">
         <v>27152</v>
       </c>
@@ -16162,7 +18089,6 @@
           <t>nottheonion</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
       <c r="E17" t="n">
         <v>24142</v>
       </c>
@@ -16199,7 +18125,6 @@
           <t>BeAmazed</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
       <c r="E18" t="n">
         <v>23865</v>
       </c>
@@ -16236,7 +18161,6 @@
           <t>gaming</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
       <c r="E19" t="n">
         <v>22448</v>
       </c>
@@ -16273,7 +18197,6 @@
           <t>politics</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
       <c r="E20" t="n">
         <v>21616</v>
       </c>
@@ -16310,7 +18233,6 @@
           <t>news</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr"/>
       <c r="E21" t="n">
         <v>21078</v>
       </c>
@@ -16347,7 +18269,6 @@
           <t>holdmycatnip</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr"/>
       <c r="E22" t="n">
         <v>20912</v>
       </c>
@@ -16384,7 +18305,6 @@
           <t>memes</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr"/>
       <c r="E23" t="n">
         <v>21300</v>
       </c>
@@ -16421,7 +18341,6 @@
           <t>rareinsults</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr"/>
       <c r="E24" t="n">
         <v>20085</v>
       </c>
@@ -16458,7 +18377,6 @@
           <t>BlackPeopleTwitter</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr"/>
       <c r="E25" t="n">
         <v>19791</v>
       </c>
@@ -16536,7 +18454,6 @@
           <t>PrequelMemes</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr"/>
       <c r="E27" t="n">
         <v>18827</v>
       </c>
@@ -16573,7 +18490,6 @@
           <t>facepalm</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr"/>
       <c r="E28" t="n">
         <v>18774</v>
       </c>
@@ -16610,7 +18526,6 @@
           <t>funny</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr"/>
       <c r="E29" t="n">
         <v>17838</v>
       </c>
@@ -16647,7 +18562,6 @@
           <t>Damnthatsinteresting</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr"/>
       <c r="E30" t="n">
         <v>17432</v>
       </c>
@@ -16684,7 +18598,6 @@
           <t>perfectlycutscreams</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr"/>
       <c r="E31" t="n">
         <v>17874</v>
       </c>
@@ -16721,7 +18634,6 @@
           <t>cats</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr"/>
       <c r="E32" t="n">
         <v>17194</v>
       </c>
@@ -16758,7 +18670,6 @@
           <t>gifs</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr"/>
       <c r="E33" t="n">
         <v>17008</v>
       </c>
@@ -16795,7 +18706,6 @@
           <t>NatureIsFuckingLit</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr"/>
       <c r="E34" t="n">
         <v>15835</v>
       </c>
@@ -16832,7 +18742,6 @@
           <t>worldnews</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr"/>
       <c r="E35" t="n">
         <v>15657</v>
       </c>
@@ -16869,7 +18778,6 @@
           <t>facepalm</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr"/>
       <c r="E36" t="n">
         <v>15718</v>
       </c>
@@ -16906,7 +18814,6 @@
           <t>Eyebleach</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr"/>
       <c r="E37" t="n">
         <v>15610</v>
       </c>
@@ -16943,7 +18850,6 @@
           <t>facepalm</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr"/>
       <c r="E38" t="n">
         <v>15687</v>
       </c>
@@ -16980,7 +18886,6 @@
           <t>shitposting</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr"/>
       <c r="E39" t="n">
         <v>15367</v>
       </c>
@@ -17017,7 +18922,6 @@
           <t>funnyvideos</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr"/>
       <c r="E40" t="n">
         <v>16437</v>
       </c>
@@ -17054,7 +18958,6 @@
           <t>wholesomememes</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr"/>
       <c r="E41" t="n">
         <v>14604</v>
       </c>
@@ -17091,7 +18994,6 @@
           <t>SipsTea</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr"/>
       <c r="E42" t="n">
         <v>14978</v>
       </c>
@@ -17128,7 +19030,6 @@
           <t>AnimalsBeingDerps</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr"/>
       <c r="E43" t="n">
         <v>14411</v>
       </c>
@@ -17206,7 +19107,6 @@
           <t>Funnymemes</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr"/>
       <c r="E45" t="n">
         <v>14953</v>
       </c>
@@ -17243,7 +19143,6 @@
           <t>technology</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr"/>
       <c r="E46" t="n">
         <v>13992</v>
       </c>
@@ -17280,7 +19179,6 @@
           <t>lotrmemes</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr"/>
       <c r="E47" t="n">
         <v>13858</v>
       </c>
@@ -17317,7 +19215,6 @@
           <t>BikiniBottomTwitter</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr"/>
       <c r="E48" t="n">
         <v>13732</v>
       </c>
@@ -17354,7 +19251,6 @@
           <t>technology</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr"/>
       <c r="E49" t="n">
         <v>13520</v>
       </c>
@@ -17391,7 +19287,6 @@
           <t>ContagiousLaughter</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr"/>
       <c r="E50" t="n">
         <v>13561</v>
       </c>
@@ -17428,7 +19323,6 @@
           <t>politics</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr"/>
       <c r="E51" t="n">
         <v>13362</v>
       </c>
